--- a/Assets/Config/Test.xlsx
+++ b/Assets/Config/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitPorject\ScriptImoprt\Assets\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D21B141-8730-4F1D-AD66-F4DB7F987530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC422A4-E4BE-4FBB-8D82-2EA594AA2AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="2595" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8835" yWindow="5265" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Uint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +98,14 @@
   </si>
   <si>
     <t>2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uint;Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String;ignore;replace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +434,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -452,15 +456,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -472,7 +476,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -492,7 +496,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -509,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
